--- a/软硬件通信协议ModbusRTU_模版.xlsx
+++ b/软硬件通信协议ModbusRTU_模版.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="协议要求" sheetId="1" r:id="rId1"/>
     <sheet name="数据协议(ArduinoTemplate)" sheetId="2" r:id="rId2"/>
-    <sheet name="数据协议(设备ID) " sheetId="4" r:id="rId3"/>
+    <sheet name="数据协议(ArduinoRTOS) " sheetId="5" r:id="rId3"/>
+    <sheet name="数据协议(设备ID) " sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="178">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -569,6 +570,99 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离散输入/线圈 1 工作模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持 10</t>
+  </si>
+  <si>
+    <t>保持 11</t>
+  </si>
+  <si>
+    <t>离散输入/线圈 2 工作模式</t>
+  </si>
+  <si>
+    <t>离散输入/线圈 n 工作模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 1 路信号输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 2 路信号输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 3 路信号输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 4 路信号输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备启动次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高字节大版本号，低字节小版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备启动次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留做以后升级使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离散输入/线圈 3 工作模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留用户使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或保留做以后升级使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -861,11 +955,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -934,6 +1078,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -993,6 +1140,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1315,88 +1474,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="31" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="32" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1428,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1450,14 +1609,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
       <c r="I1" s="14" t="s">
@@ -1494,16 +1653,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="10" t="s">
         <v>90</v>
       </c>
@@ -1698,16 +1857,16 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
       <c r="I13" s="10" t="s">
         <v>91</v>
       </c>
@@ -1902,16 +2061,16 @@
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
       <c r="I23" s="10" t="s">
         <v>93</v>
       </c>
@@ -2106,27 +2265,27 @@
       <c r="I32" s="15"/>
     </row>
     <row r="33" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
       <c r="I33" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="K33" s="37" t="s">
+      <c r="K33" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="L33" s="37"/>
-      <c r="N33" s="37" t="s">
+      <c r="L33" s="38"/>
+      <c r="N33" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="O33" s="37"/>
+      <c r="O33" s="38"/>
     </row>
     <row r="34" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
@@ -2445,6 +2604,1059 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="4" customWidth="1"/>
+    <col min="7" max="8" width="15.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="35.75" style="17" customWidth="1"/>
+    <col min="10" max="10" width="3.625" style="4" customWidth="1"/>
+    <col min="11" max="12" width="9" style="4"/>
+    <col min="13" max="13" width="3.125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="9" style="4"/>
+    <col min="15" max="15" width="21.75" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="24">
+        <v>1</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="24">
+        <v>1</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="24">
+        <v>1</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="24">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="24">
+        <v>1</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="24">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="24">
+        <v>1</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="24">
+        <v>1</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="24">
+        <v>1</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="24">
+        <v>1</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="24">
+        <v>1</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="24">
+        <v>1</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="24">
+        <v>1</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="24">
+        <v>1</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="24">
+        <v>1</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="24">
+        <v>16</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="24">
+        <v>16</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="24">
+        <v>16</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="24">
+        <v>16</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="11"/>
+      <c r="B28" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="24">
+        <v>16</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
+      <c r="B29" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="24">
+        <v>16</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
+      <c r="B30" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="24">
+        <v>16</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
+      <c r="B31" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="24">
+        <v>16</v>
+      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
+      <c r="B32" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="24">
+        <v>16</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K33" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="L33" s="38"/>
+      <c r="N33" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="O33" s="38"/>
+    </row>
+    <row r="34" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="11"/>
+      <c r="B34" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="24">
+        <v>16</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="L34" s="24">
+        <v>9600</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="O34" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="11"/>
+      <c r="B35" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="24">
+        <v>16</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="L35" s="24">
+        <v>19200</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="O35" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="11"/>
+      <c r="B36" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="24">
+        <v>16</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="L36" s="24">
+        <v>38400</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="O36" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="11"/>
+      <c r="B37" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="24">
+        <v>16</v>
+      </c>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="K37" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="L37" s="24">
+        <v>115200</v>
+      </c>
+      <c r="N37" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="O37" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="11"/>
+      <c r="B38" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="24">
+        <v>16</v>
+      </c>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="K38" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="L38" s="24">
+        <v>230400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="11"/>
+      <c r="B39" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="24">
+        <v>16</v>
+      </c>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="K39" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="L39" s="24">
+        <v>460800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="11"/>
+      <c r="B40" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="24">
+        <v>16</v>
+      </c>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="K40" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="L40" s="24">
+        <v>921600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="11"/>
+      <c r="B41" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="24">
+        <v>16</v>
+      </c>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="45"/>
+      <c r="B42" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" s="46">
+        <v>16</v>
+      </c>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="48"/>
+    </row>
+    <row r="43" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="45"/>
+      <c r="B43" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="48"/>
+    </row>
+    <row r="44" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="45"/>
+      <c r="B44" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="48"/>
+    </row>
+    <row r="45" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="K33:L33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E2 E4:E12 E14:E22 E24:E32 E34:E1048576"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
@@ -2471,14 +3683,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
       <c r="I1" s="14" t="s">
@@ -2515,16 +3727,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="10" t="s">
         <v>90</v>
       </c>
@@ -2719,16 +3931,16 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
       <c r="I13" s="10" t="s">
         <v>91</v>
       </c>
@@ -2923,16 +4135,16 @@
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
       <c r="I23" s="10" t="s">
         <v>93</v>
       </c>
@@ -3127,24 +4339,24 @@
       <c r="I32" s="15"/>
     </row>
     <row r="33" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
       <c r="I33" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
     </row>
     <row r="34" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
@@ -3166,11 +4378,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
       <c r="I34" s="15"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
     </row>
     <row r="35" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="11"/>
@@ -3192,11 +4404,11 @@
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
       <c r="I35" s="15"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
     </row>
     <row r="36" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="11"/>
@@ -3218,11 +4430,11 @@
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
       <c r="I36" s="15"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
     </row>
     <row r="37" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11"/>
@@ -3244,11 +4456,11 @@
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
       <c r="I37" s="15"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
     </row>
     <row r="38" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
@@ -3270,11 +4482,11 @@
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
       <c r="I38" s="15"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
     </row>
     <row r="39" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
@@ -3296,11 +4508,11 @@
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
       <c r="I39" s="15"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
     </row>
     <row r="40" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
@@ -3322,11 +4534,11 @@
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
       <c r="I40" s="15"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
     </row>
     <row r="41" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
@@ -3348,11 +4560,11 @@
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
       <c r="I41" s="15"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
     </row>
     <row r="42" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>

--- a/软硬件通信协议ModbusRTU_模版.xlsx
+++ b/软硬件通信协议ModbusRTU_模版.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="197">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -598,71 +598,143 @@
     <t>离散输入/线圈 2 工作模式</t>
   </si>
   <si>
+    <t>第 1 路信号输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 2 路信号输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 3 路信号输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 4 路信号输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备启动次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高字节大版本号，低字节小版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留做以后升级使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备启动次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000~0xFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备启动次数（只读，修改无效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固件版本号（只读，修改无效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>离散输入/线圈 n 工作模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第 1 路信号输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第 2 路信号输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第 3 路信号输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第 4 路信号输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备启动次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高字节大版本号，低字节小版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备启动次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留做以后升级使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离散输入/线圈 3 工作模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留用户使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>或保留做以后升级使用</t>
+    <t>输入/输出 非锁 联动模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入/输出 自锁 联动模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作模式(0x0009~0x000n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信波特率(0x0002)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0009</t>
+  </si>
+  <si>
+    <t>0x0010</t>
+  </si>
+  <si>
+    <t>低字节表示工作模式，高字节表示参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留 0，用户可以使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储用户数据，或保留做以后升级使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储用户数据，或保留做以后升级使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留 1，用户可以使用</t>
+  </si>
+  <si>
+    <t>保留 2，用户可以使用</t>
+  </si>
+  <si>
+    <t>输入/输出 互锁 联动模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入/输出 点锁 联动模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,7 +742,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,6 +787,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1009,7 +1089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1105,6 +1185,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1141,17 +1236,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1477,18 +1566,18 @@
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1551,10 +1640,10 @@
       <c r="A7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="32" t="s">
         <v>5</v>
       </c>
@@ -1609,14 +1698,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
       <c r="I1" s="14" t="s">
@@ -1653,16 +1742,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="10" t="s">
         <v>90</v>
       </c>
@@ -1857,16 +1946,16 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="10" t="s">
         <v>91</v>
       </c>
@@ -2061,16 +2150,16 @@
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
       <c r="I23" s="10" t="s">
         <v>93</v>
       </c>
@@ -2265,27 +2354,27 @@
       <c r="I32" s="15"/>
     </row>
     <row r="33" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="43"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="48"/>
       <c r="I33" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="K33" s="38" t="s">
+      <c r="K33" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="L33" s="38"/>
-      <c r="N33" s="38" t="s">
+      <c r="L33" s="43"/>
+      <c r="N33" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="O33" s="38"/>
+      <c r="O33" s="43"/>
     </row>
     <row r="34" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
@@ -2605,10 +2694,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2629,14 +2718,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
       <c r="I1" s="14" t="s">
@@ -2673,16 +2762,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="10" t="s">
         <v>90</v>
       </c>
@@ -2877,16 +2966,16 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="10" t="s">
         <v>91</v>
       </c>
@@ -3081,16 +3170,16 @@
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
       <c r="I23" s="10" t="s">
         <v>93</v>
       </c>
@@ -3101,7 +3190,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>54</v>
@@ -3115,7 +3204,7 @@
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3124,7 +3213,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>55</v>
@@ -3138,7 +3227,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
       <c r="I25" s="15" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3147,7 +3236,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>56</v>
@@ -3161,7 +3250,7 @@
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
       <c r="I26" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3170,7 +3259,7 @@
         <v>33</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>57</v>
@@ -3184,7 +3273,7 @@
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
       <c r="I27" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3193,7 +3282,7 @@
         <v>34</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>58</v>
@@ -3214,7 +3303,7 @@
         <v>35</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>59</v>
@@ -3235,7 +3324,7 @@
         <v>36</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>60</v>
@@ -3256,7 +3345,7 @@
         <v>37</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>61</v>
@@ -3280,7 +3369,7 @@
         <v>38</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>86</v>
@@ -3292,36 +3381,37 @@
       <c r="H32" s="22"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="41" t="s">
+    <row r="33" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="43"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="48"/>
       <c r="I33" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="K33" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="L33" s="38"/>
-      <c r="N33" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="O33" s="38"/>
-    </row>
-    <row r="34" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K33" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="L33" s="43"/>
+      <c r="N33" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="O33" s="43"/>
+      <c r="P33" s="33"/>
+    </row>
+    <row r="34" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
       <c r="B34" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>54</v>
@@ -3333,13 +3423,13 @@
         <v>16</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="K34" s="24" t="s">
         <v>126</v>
@@ -3347,20 +3437,23 @@
       <c r="L34" s="24">
         <v>9600</v>
       </c>
-      <c r="N34" s="24" t="s">
+      <c r="N34" s="33" t="s">
         <v>133</v>
       </c>
       <c r="O34" s="18" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P34" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="11"/>
       <c r="B35" s="24" t="s">
         <v>74</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>55</v>
@@ -3372,13 +3465,13 @@
         <v>16</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="K35" s="24" t="s">
         <v>127</v>
@@ -3386,20 +3479,23 @@
       <c r="L35" s="24">
         <v>19200</v>
       </c>
-      <c r="N35" s="24" t="s">
+      <c r="N35" s="33" t="s">
         <v>127</v>
       </c>
       <c r="O35" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+      <c r="P35" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="11"/>
       <c r="B36" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>56</v>
@@ -3411,13 +3507,13 @@
         <v>16</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="H36" s="22" t="s">
         <v>110</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="K36" s="24" t="s">
         <v>128</v>
@@ -3425,20 +3521,23 @@
       <c r="L36" s="24">
         <v>38400</v>
       </c>
-      <c r="N36" s="24" t="s">
+      <c r="N36" s="33" t="s">
         <v>128</v>
       </c>
       <c r="O36" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="P36" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11"/>
       <c r="B37" s="24" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>57</v>
@@ -3449,10 +3548,14 @@
       <c r="F37" s="24">
         <v>16</v>
       </c>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
+      <c r="G37" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>110</v>
+      </c>
       <c r="I37" s="15" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="K37" s="24" t="s">
         <v>129</v>
@@ -3460,20 +3563,23 @@
       <c r="L37" s="24">
         <v>115200</v>
       </c>
-      <c r="N37" s="24" t="s">
+      <c r="N37" s="33" t="s">
         <v>129</v>
       </c>
       <c r="O37" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+      <c r="P37" s="33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>58</v>
@@ -3484,25 +3590,38 @@
       <c r="F38" s="24">
         <v>16</v>
       </c>
-      <c r="G38" s="22"/>
+      <c r="G38" s="22" t="s">
+        <v>176</v>
+      </c>
       <c r="H38" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="I38" s="15"/>
+      <c r="I38" s="15" t="s">
+        <v>171</v>
+      </c>
       <c r="K38" s="24" t="s">
         <v>130</v>
       </c>
       <c r="L38" s="24">
         <v>230400</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N38" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="O38" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="P38" s="50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
       <c r="B39" s="24" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>59</v>
@@ -3514,10 +3633,10 @@
         <v>16</v>
       </c>
       <c r="G39" s="22"/>
-      <c r="H39" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="I39" s="15"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="15" t="s">
+        <v>188</v>
+      </c>
       <c r="K39" s="24" t="s">
         <v>131</v>
       </c>
@@ -3525,13 +3644,13 @@
         <v>460800</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
       <c r="B40" s="24" t="s">
         <v>79</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>60</v>
@@ -3543,10 +3662,10 @@
         <v>16</v>
       </c>
       <c r="G40" s="22"/>
-      <c r="H40" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="I40" s="15"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="15" t="s">
+        <v>189</v>
+      </c>
       <c r="K40" s="24" t="s">
         <v>132</v>
       </c>
@@ -3554,13 +3673,13 @@
         <v>921600</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
       <c r="B41" s="24" t="s">
         <v>80</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>61</v>
@@ -3572,57 +3691,77 @@
         <v>16</v>
       </c>
       <c r="G41" s="22"/>
-      <c r="H41" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="45"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="34"/>
       <c r="B42" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="46" t="s">
+      <c r="C42" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E42" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="F42" s="46">
-        <v>16</v>
-      </c>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="48"/>
-    </row>
-    <row r="43" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="45"/>
+      <c r="F42" s="35">
+        <v>16</v>
+      </c>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="34"/>
       <c r="B43" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="48"/>
-    </row>
-    <row r="44" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="45"/>
+      <c r="C43" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="33">
+        <v>16</v>
+      </c>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="37"/>
+    </row>
+    <row r="44" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="34"/>
       <c r="B44" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="48"/>
-    </row>
-    <row r="45" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="35">
+        <v>16</v>
+      </c>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="37"/>
+    </row>
+    <row r="45" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12"/>
       <c r="B45" s="13" t="s">
         <v>38</v>
@@ -3683,14 +3822,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
       <c r="I1" s="14" t="s">
@@ -3727,16 +3866,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="10" t="s">
         <v>90</v>
       </c>
@@ -3931,16 +4070,16 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="10" t="s">
         <v>91</v>
       </c>
@@ -4135,16 +4274,16 @@
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
       <c r="I23" s="10" t="s">
         <v>93</v>
       </c>
@@ -4339,24 +4478,24 @@
       <c r="I32" s="15"/>
     </row>
     <row r="33" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="43"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="48"/>
       <c r="I33" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
     </row>
     <row r="34" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>

--- a/软硬件通信协议ModbusRTU_模版.xlsx
+++ b/软硬件通信协议ModbusRTU_模版.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="协议要求" sheetId="1" r:id="rId1"/>
-    <sheet name="数据协议(ArduinoTemplate)" sheetId="2" r:id="rId2"/>
-    <sheet name="数据协议(ArduinoRTOS) " sheetId="5" r:id="rId3"/>
-    <sheet name="数据协议(设备ID) " sheetId="4" r:id="rId4"/>
+    <sheet name="数据协议(ArduinoModusTemplate) " sheetId="5" r:id="rId2"/>
+    <sheet name="数据协议(设备ID) " sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="173">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,10 +373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>离散输入与线圈状态的绑定模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,18 +389,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x00~0x04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>离散输入去抖时间 (ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9600,8N1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,14 +405,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x0000~0xFFFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0~5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通信波特率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,18 +417,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>led闪烁间隔时间 (ms)，需要设备支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保留用户使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>写无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备地址ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,23 +459,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关联锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通信波特率(0x0001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作模式(0x0003)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x00~0x06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01~0xFE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -529,14 +480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关联非锁定，状态同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联锁定，输出唯一状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9600~115200,8N1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,27 +488,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>链接类型/参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线圈控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保持寄存器（0x0000~0x0007）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线圈控制（0x0000~0x0005）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离散量输入 （0x0000~0x0005）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入寄存器（0）</t>
+    <t>离散输入/线圈 1 工作模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持 10</t>
+  </si>
+  <si>
+    <t>保持 11</t>
+  </si>
+  <si>
+    <t>离散输入/线圈 2 工作模式</t>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高字节大版本号，低字节小版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备启动次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000~0xFFFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -573,168 +537,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>离散输入/线圈 1 工作模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保持 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保持 10</t>
-  </si>
-  <si>
-    <t>保持 11</t>
-  </si>
-  <si>
-    <t>离散输入/线圈 2 工作模式</t>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备启动次数（只读，修改无效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固件版本号（只读，修改无效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离散输入/线圈 n 工作模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入/输出 非锁 联动模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入/输出 自锁 联动模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作模式(0x0009~0x000n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信波特率(0x0002)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0009</t>
+  </si>
+  <si>
+    <t>0x0010</t>
+  </si>
+  <si>
+    <t>低字节表示工作模式，高字节表示参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留 0，用户可以使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储用户数据，或保留做以后升级使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储用户数据，或保留做以后升级使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留 1，用户可以使用</t>
+  </si>
+  <si>
+    <t>保留 2，用户可以使用</t>
+  </si>
+  <si>
+    <t>输入/输出 互锁 联动模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入/输出 点锁 联动模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第 1 路信号输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第 2 路信号输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第 3 路信号输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第 4 路信号输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备启动次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高字节大版本号，低字节小版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留做以后升级使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备启动次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0000~0xFFFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备启动次数（只读，修改无效）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固件版本号（只读，修改无效）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离散输入/线圈 n 工作模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入/输出 非锁 联动模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入/输出 自锁 联动模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作模式(0x0009~0x000n)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通信波特率(0x0002)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0009</t>
-  </si>
-  <si>
-    <t>0x0010</t>
-  </si>
-  <si>
-    <t>低字节表示工作模式，高字节表示参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留 0，用户可以使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储用户数据，或保留做以后升级使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储用户数据，或保留做以后升级使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留 1，用户可以使用</t>
-  </si>
-  <si>
-    <t>保留 2，用户可以使用</t>
-  </si>
-  <si>
-    <t>输入/输出 互锁 联动模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入/输出 点锁 联动模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可选参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未实现</t>
+    <t>0x0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必选参数，线圈控制位索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选参数，等待时间单位(250ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持寄存器（0x0000~0x0007,0x0008~）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线圈控制（0x0000~0x0004）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离散量输入 （0x0000~0x0004）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入寄存器（0x0000~0x0005）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,7 +645,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,14 +690,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1089,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1236,10 +1131,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1549,7 +1441,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1573,7 +1465,7 @@
     </row>
     <row r="2" spans="1:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -1613,18 +1505,18 @@
         <v>3</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="28" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>7</v>
@@ -1650,15 +1542,8 @@
     </row>
     <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" t="s">
-        <v>148</v>
-      </c>
+      <c r="B9"/>
+      <c r="C9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1674,17 +1559,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="4" customWidth="1"/>
     <col min="5" max="6" width="10.75" style="4" customWidth="1"/>
     <col min="7" max="8" width="15.75" style="4" customWidth="1"/>
@@ -1694,12 +1579,13 @@
     <col min="13" max="13" width="3.125" style="4" customWidth="1"/>
     <col min="14" max="14" width="9" style="4"/>
     <col min="15" max="15" width="21.75" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="4"/>
+    <col min="16" max="16" width="26.25" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -1709,41 +1595,41 @@
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
       <c r="I1" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="46" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -1753,24 +1639,24 @@
       <c r="G3" s="47"/>
       <c r="H3" s="48"/>
       <c r="I3" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
+      <c r="B4" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="7">
+        <v>38</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="24">
         <v>1</v>
       </c>
       <c r="G4" s="22"/>
@@ -1779,19 +1665,19 @@
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
+      <c r="B5" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="7">
+        <v>39</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="24">
         <v>1</v>
       </c>
       <c r="G5" s="22"/>
@@ -1800,19 +1686,19 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
+      <c r="B6" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="7">
+        <v>40</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="24">
         <v>1</v>
       </c>
       <c r="G6" s="22"/>
@@ -1821,19 +1707,19 @@
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
-      <c r="B7" s="7" t="s">
-        <v>24</v>
+      <c r="B7" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="7">
+        <v>41</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="24">
         <v>1</v>
       </c>
       <c r="G7" s="22"/>
@@ -1842,19 +1728,19 @@
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
+      <c r="B8" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="7">
+        <v>42</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="24">
         <v>1</v>
       </c>
       <c r="G8" s="22"/>
@@ -1863,19 +1749,19 @@
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
-      <c r="B9" s="7" t="s">
-        <v>26</v>
+      <c r="B9" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="7">
+        <v>43</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="24">
         <v>1</v>
       </c>
       <c r="G9" s="22"/>
@@ -1884,19 +1770,19 @@
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
-      <c r="B10" s="7" t="s">
-        <v>27</v>
+      <c r="B10" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="7">
+        <v>44</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="24">
         <v>1</v>
       </c>
       <c r="G10" s="22"/>
@@ -1905,19 +1791,19 @@
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
-      <c r="B11" s="7" t="s">
-        <v>28</v>
+      <c r="B11" s="24" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="7">
+        <v>45</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="24">
         <v>1</v>
       </c>
       <c r="G11" s="22"/>
@@ -1926,28 +1812,22 @@
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
-      <c r="B12" s="7" t="s">
-        <v>38</v>
+      <c r="B12" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="46" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -1957,24 +1837,24 @@
       <c r="G13" s="47"/>
       <c r="H13" s="48"/>
       <c r="I13" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
-      <c r="B14" s="7" t="s">
-        <v>95</v>
+      <c r="B14" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="7">
+        <v>63</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="24">
         <v>1</v>
       </c>
       <c r="G14" s="22"/>
@@ -1983,19 +1863,19 @@
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
-      <c r="B15" s="7" t="s">
-        <v>96</v>
+      <c r="B15" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="7">
+        <v>46</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="24">
         <v>1</v>
       </c>
       <c r="G15" s="22"/>
@@ -2004,19 +1884,19 @@
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
-      <c r="B16" s="7" t="s">
-        <v>97</v>
+      <c r="B16" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="7">
+        <v>47</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="24">
         <v>1</v>
       </c>
       <c r="G16" s="22"/>
@@ -2025,19 +1905,19 @@
     </row>
     <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
-      <c r="B17" s="7" t="s">
-        <v>98</v>
+      <c r="B17" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="7">
+        <v>48</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="24">
         <v>1</v>
       </c>
       <c r="G17" s="22"/>
@@ -2046,19 +1926,19 @@
     </row>
     <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
-      <c r="B18" s="7" t="s">
-        <v>99</v>
+      <c r="B18" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="7">
+        <v>49</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="24">
         <v>1</v>
       </c>
       <c r="G18" s="22"/>
@@ -2067,19 +1947,19 @@
     </row>
     <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
-      <c r="B19" s="7" t="s">
-        <v>100</v>
+      <c r="B19" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="7">
+        <v>50</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="24">
         <v>1</v>
       </c>
       <c r="G19" s="22"/>
@@ -2088,19 +1968,19 @@
     </row>
     <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
-      <c r="B20" s="7" t="s">
-        <v>101</v>
+      <c r="B20" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="7">
+        <v>51</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="24">
         <v>1</v>
       </c>
       <c r="G20" s="22"/>
@@ -2109,19 +1989,19 @@
     </row>
     <row r="21" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
-      <c r="B21" s="7" t="s">
-        <v>102</v>
+      <c r="B21" s="24" t="s">
+        <v>101</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="7">
+        <v>52</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="24">
         <v>1</v>
       </c>
       <c r="G21" s="22"/>
@@ -2130,28 +2010,22 @@
     </row>
     <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
-      <c r="B22" s="7" t="s">
-        <v>81</v>
+      <c r="B22" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="7">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="46" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
@@ -2161,24 +2035,24 @@
       <c r="G23" s="47"/>
       <c r="H23" s="48"/>
       <c r="I23" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
-      <c r="B24" s="7" t="s">
-        <v>30</v>
+      <c r="B24" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="7">
+        <v>165</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="24">
         <v>16</v>
       </c>
       <c r="G24" s="22"/>
@@ -2187,19 +2061,19 @@
     </row>
     <row r="25" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
-      <c r="B25" s="7" t="s">
-        <v>31</v>
+      <c r="B25" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="7">
+        <v>65</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="24">
         <v>16</v>
       </c>
       <c r="G25" s="22"/>
@@ -2208,19 +2082,19 @@
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
-      <c r="B26" s="7" t="s">
-        <v>32</v>
+      <c r="B26" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="7">
+        <v>66</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="24">
         <v>16</v>
       </c>
       <c r="G26" s="22"/>
@@ -2229,19 +2103,19 @@
     </row>
     <row r="27" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
-      <c r="B27" s="7" t="s">
-        <v>33</v>
+      <c r="B27" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="7">
+        <v>67</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="24">
         <v>16</v>
       </c>
       <c r="G27" s="22"/>
@@ -2250,19 +2124,19 @@
     </row>
     <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
-      <c r="B28" s="7" t="s">
-        <v>34</v>
+      <c r="B28" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="7">
+        <v>68</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="24">
         <v>16</v>
       </c>
       <c r="G28" s="22"/>
@@ -2271,19 +2145,19 @@
     </row>
     <row r="29" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
-      <c r="B29" s="7" t="s">
-        <v>35</v>
+      <c r="B29" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="7">
+        <v>69</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="24">
         <v>16</v>
       </c>
       <c r="G29" s="22"/>
@@ -2292,19 +2166,19 @@
     </row>
     <row r="30" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
-      <c r="B30" s="7" t="s">
-        <v>36</v>
+      <c r="B30" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="7">
+        <v>70</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="24">
         <v>16</v>
       </c>
       <c r="G30" s="22"/>
@@ -2313,19 +2187,19 @@
     </row>
     <row r="31" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
-      <c r="B31" s="7" t="s">
-        <v>37</v>
+      <c r="B31" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="7">
+        <v>71</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="24">
         <v>16</v>
       </c>
       <c r="G31" s="22"/>
@@ -2334,28 +2208,24 @@
     </row>
     <row r="32" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
-      <c r="B32" s="7" t="s">
-        <v>38</v>
+      <c r="B32" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="7">
-        <v>16</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="46" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
@@ -2365,1269 +2235,241 @@
       <c r="G33" s="47"/>
       <c r="H33" s="48"/>
       <c r="I33" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K33" s="43" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L33" s="43"/>
       <c r="N33" s="43" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="O33" s="43"/>
-    </row>
-    <row r="34" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="11"/>
-      <c r="B34" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="7">
-        <v>16</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L34" s="7">
-        <v>9600</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="O34" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
-      <c r="B35" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="7">
-        <v>16</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L35" s="7">
-        <v>19200</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="O35" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
-      <c r="B36" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="7">
-        <v>16</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L36" s="7">
-        <v>38400</v>
-      </c>
-      <c r="N36" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="O36" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="11"/>
-      <c r="B37" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="7">
-        <v>16</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L37" s="7">
-        <v>115200</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="O37" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="11"/>
-      <c r="B38" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="7">
-        <v>16</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="22">
-        <v>8</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L38" s="7">
-        <v>230400</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="11"/>
-      <c r="B39" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="7">
-        <v>16</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="H39" s="22">
-        <v>500</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L39" s="7">
-        <v>460800</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="11"/>
-      <c r="B40" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="7">
-        <v>16</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L40" s="7">
-        <v>921600</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="11"/>
-      <c r="B41" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" s="7">
-        <v>16</v>
-      </c>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F42" s="13">
-        <v>16</v>
-      </c>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A33:H33"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E2 E4:E12 E14:E22 E24:E32 E34:E1048576"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="4" customWidth="1"/>
-    <col min="5" max="6" width="10.75" style="4" customWidth="1"/>
-    <col min="7" max="8" width="15.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="35.75" style="17" customWidth="1"/>
-    <col min="10" max="10" width="3.625" style="4" customWidth="1"/>
-    <col min="11" max="12" width="9" style="4"/>
-    <col min="13" max="13" width="3.125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9" style="4"/>
-    <col min="15" max="15" width="21.75" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="24">
-        <v>1</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="24">
-        <v>1</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="24">
-        <v>1</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="24">
-        <v>1</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="24">
-        <v>1</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="24">
-        <v>1</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="24">
-        <v>1</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="24">
-        <v>1</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="24">
-        <v>1</v>
-      </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="24">
-        <v>1</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="24">
-        <v>1</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="24">
-        <v>1</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="24">
-        <v>1</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="24">
-        <v>1</v>
-      </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="24">
-        <v>1</v>
-      </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="24">
-        <v>1</v>
-      </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="24">
-        <v>1</v>
-      </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="24">
-        <v>1</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="24">
-        <v>16</v>
-      </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
-      <c r="B25" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="24">
-        <v>16</v>
-      </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
-      <c r="B26" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="24">
-        <v>16</v>
-      </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
-      <c r="B27" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="24">
-        <v>16</v>
-      </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="24">
-        <v>16</v>
-      </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
-      <c r="B29" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="24">
-        <v>16</v>
-      </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
-      <c r="B30" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="24">
-        <v>16</v>
-      </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11"/>
-      <c r="B31" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="24">
-        <v>16</v>
-      </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
-      <c r="B32" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="24">
-        <v>16</v>
-      </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K33" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="L33" s="43"/>
-      <c r="N33" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="O33" s="43"/>
-      <c r="P33" s="33"/>
+      <c r="P33" s="18"/>
     </row>
     <row r="34" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
       <c r="B34" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F34" s="24">
         <v>16</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L34" s="24">
         <v>9600</v>
       </c>
       <c r="N34" s="33" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="O34" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="P34" s="33" t="s">
-        <v>195</v>
+        <v>130</v>
+      </c>
+      <c r="P34" s="18" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="11"/>
       <c r="B35" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F35" s="24">
         <v>16</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L35" s="24">
         <v>19200</v>
       </c>
       <c r="N35" s="33" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="O35" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="P35" s="33" t="s">
-        <v>195</v>
+        <v>150</v>
+      </c>
+      <c r="P35" s="18" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="11"/>
       <c r="B36" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F36" s="24">
         <v>16</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L36" s="24">
         <v>38400</v>
       </c>
       <c r="N36" s="33" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="O36" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="P36" s="33" t="s">
-        <v>195</v>
+        <v>151</v>
+      </c>
+      <c r="P36" s="18" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11"/>
       <c r="B37" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F37" s="24">
         <v>16</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L37" s="24">
         <v>115200</v>
       </c>
       <c r="N37" s="33" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="O37" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="P37" s="33" t="s">
-        <v>194</v>
+        <v>163</v>
+      </c>
+      <c r="P37" s="18" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F38" s="24">
         <v>16</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L38" s="24">
         <v>230400</v>
       </c>
-      <c r="N38" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="O38" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="P38" s="50" t="s">
-        <v>196</v>
+      <c r="N38" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="O38" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="P38" s="18" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
       <c r="B39" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F39" s="24">
         <v>16</v>
@@ -3635,10 +2477,10 @@
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
       <c r="I39" s="15" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="K39" s="24" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L39" s="24">
         <v>460800</v>
@@ -3647,16 +2489,16 @@
     <row r="40" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
       <c r="B40" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F40" s="24">
         <v>16</v>
@@ -3664,10 +2506,10 @@
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
       <c r="I40" s="15" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L40" s="24">
         <v>921600</v>
@@ -3676,16 +2518,16 @@
     <row r="41" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
       <c r="B41" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F41" s="24">
         <v>16</v>
@@ -3693,88 +2535,109 @@
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
       <c r="I41" s="15" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="34"/>
       <c r="B42" s="24" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E42" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="35">
+        <v>16</v>
+      </c>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="I42" s="37" t="s">
         <v>156</v>
-      </c>
-      <c r="F42" s="35">
-        <v>16</v>
-      </c>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="37" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="34"/>
       <c r="B43" s="24" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F43" s="33">
         <v>16</v>
       </c>
       <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="37"/>
+      <c r="H43" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="I43" s="37" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="44" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="34"/>
       <c r="B44" s="24" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F44" s="35">
         <v>16</v>
       </c>
       <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="37"/>
-    </row>
-    <row r="45" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="16"/>
+      <c r="H44" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="I44" s="37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="34"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="37"/>
+    </row>
+    <row r="46" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3795,7 +2658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
@@ -3823,7 +2686,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -3833,41 +2696,41 @@
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
       <c r="I1" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -3877,22 +2740,22 @@
       <c r="G3" s="47"/>
       <c r="H3" s="48"/>
       <c r="I3" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
@@ -3904,16 +2767,16 @@
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
@@ -3925,16 +2788,16 @@
     <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
@@ -3946,16 +2809,16 @@
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
@@ -3967,16 +2830,16 @@
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
@@ -3988,16 +2851,16 @@
     <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
@@ -4009,16 +2872,16 @@
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
@@ -4030,16 +2893,16 @@
     <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
@@ -4051,16 +2914,16 @@
     <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="7">
         <v>1</v>
@@ -4071,7 +2934,7 @@
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -4081,22 +2944,22 @@
       <c r="G13" s="47"/>
       <c r="H13" s="48"/>
       <c r="I13" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="B14" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
@@ -4108,16 +2971,16 @@
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="B15" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="7">
         <v>1</v>
@@ -4129,16 +2992,16 @@
     <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="B16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
@@ -4150,16 +3013,16 @@
     <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
       <c r="B17" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7">
         <v>1</v>
@@ -4171,16 +3034,16 @@
     <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
       <c r="B18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="7">
         <v>1</v>
@@ -4192,16 +3055,16 @@
     <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
       <c r="B19" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7">
         <v>1</v>
@@ -4213,16 +3076,16 @@
     <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
       <c r="B20" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="7">
         <v>1</v>
@@ -4234,16 +3097,16 @@
     <row r="21" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
       <c r="B21" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="7">
         <v>1</v>
@@ -4255,16 +3118,16 @@
     <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
       <c r="B22" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="7">
         <v>1</v>
@@ -4275,7 +3138,7 @@
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
@@ -4285,22 +3148,22 @@
       <c r="G23" s="47"/>
       <c r="H23" s="48"/>
       <c r="I23" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
       <c r="B24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="7">
         <v>16</v>
@@ -4312,16 +3175,16 @@
     <row r="25" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
       <c r="B25" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7">
         <v>16</v>
@@ -4333,16 +3196,16 @@
     <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="7">
         <v>16</v>
@@ -4354,16 +3217,16 @@
     <row r="27" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
       <c r="B27" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="7">
         <v>16</v>
@@ -4375,16 +3238,16 @@
     <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
       <c r="B28" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="7">
         <v>16</v>
@@ -4396,16 +3259,16 @@
     <row r="29" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
       <c r="B29" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7">
         <v>16</v>
@@ -4417,16 +3280,16 @@
     <row r="30" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
       <c r="B30" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30" s="7">
         <v>16</v>
@@ -4438,16 +3301,16 @@
     <row r="31" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
       <c r="B31" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F31" s="7">
         <v>16</v>
@@ -4459,16 +3322,16 @@
     <row r="32" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
       <c r="B32" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F32" s="7">
         <v>16</v>
@@ -4479,7 +3342,7 @@
     </row>
     <row r="33" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
@@ -4489,7 +3352,7 @@
       <c r="G33" s="47"/>
       <c r="H33" s="48"/>
       <c r="I33" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K33" s="49"/>
       <c r="L33" s="49"/>
@@ -4500,16 +3363,16 @@
     <row r="34" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
       <c r="B34" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F34" s="7">
         <v>16</v>
@@ -4526,16 +3389,16 @@
     <row r="35" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="11"/>
       <c r="B35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F35" s="7">
         <v>16</v>
@@ -4552,16 +3415,16 @@
     <row r="36" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="11"/>
       <c r="B36" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F36" s="7">
         <v>16</v>
@@ -4578,16 +3441,16 @@
     <row r="37" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11"/>
       <c r="B37" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F37" s="7">
         <v>16</v>
@@ -4604,16 +3467,16 @@
     <row r="38" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F38" s="7">
         <v>16</v>
@@ -4630,16 +3493,16 @@
     <row r="39" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
       <c r="B39" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F39" s="7">
         <v>16</v>
@@ -4656,16 +3519,16 @@
     <row r="40" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
       <c r="B40" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F40" s="7">
         <v>16</v>
@@ -4682,16 +3545,16 @@
     <row r="41" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
       <c r="B41" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F41" s="7">
         <v>16</v>
@@ -4708,16 +3571,16 @@
     <row r="42" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
       <c r="B42" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F42" s="13">
         <v>16</v>

--- a/软硬件通信协议ModbusRTU_模版.xlsx
+++ b/软硬件通信协议ModbusRTU_模版.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="167">
   <si>
     <t>ModBus RTU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,14 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x0008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保持 9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,16 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x0009</t>
-  </si>
-  <si>
-    <t>0x0010</t>
-  </si>
-  <si>
-    <t>低字节表示工作模式，高字节表示参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保留 0，用户可以使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,10 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>必选参数，线圈控制位索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -518,17 +496,6 @@
   </si>
   <si>
     <t>工作模式(0x0008~0x000n)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离散输入/输出 1 工作模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离散输入/输出 2 工作模式</t>
-  </si>
-  <si>
-    <t>离散输入/输出 n 工作模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -636,6 +603,19 @@
   <si>
     <t>限位 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限位 3</t>
+  </si>
+  <si>
+    <t>限位 4</t>
+  </si>
+  <si>
+    <t>0x00~0x01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00</t>
   </si>
 </sst>
 </file>
@@ -1158,21 +1138,33 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1196,18 +1188,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1531,52 +1511,52 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
+        <v>143</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
+      <c r="A2" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
+        <v>145</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
+        <v>146</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
+        <v>147</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>0</v>
@@ -1589,25 +1569,25 @@
     </row>
     <row r="7" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>91</v>
@@ -1618,28 +1598,28 @@
     </row>
     <row r="9" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="41"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="28" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1649,12 +1629,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1667,7 +1647,7 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1691,18 +1671,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="A1" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
       <c r="I1" s="12" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1735,24 +1715,24 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
+      <c r="A3" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="21" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>16</v>
@@ -1773,7 +1753,7 @@
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="34" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>17</v>
@@ -1794,7 +1774,7 @@
     <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="34" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>18</v>
@@ -1815,7 +1795,7 @@
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="34" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>19</v>
@@ -1836,7 +1816,7 @@
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="34" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>20</v>
@@ -1857,7 +1837,7 @@
     <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="34" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>21</v>
@@ -1878,7 +1858,7 @@
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="34" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>22</v>
@@ -1899,7 +1879,7 @@
     <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="34" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>23</v>
@@ -1933,18 +1913,18 @@
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
+      <c r="A13" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1965,13 +1945,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1992,13 +1972,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2018,9 +1998,15 @@
       <c r="F16" s="21">
         <v>1</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="13"/>
+      <c r="G16" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
@@ -2039,9 +2025,15 @@
       <c r="F17" s="21">
         <v>1</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="13"/>
+      <c r="G17" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
@@ -2143,18 +2135,18 @@
       <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
+      <c r="A23" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="57"/>
       <c r="I23" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2163,7 +2155,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>31</v>
@@ -2334,7 +2326,7 @@
         <v>15</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
@@ -2343,27 +2335,27 @@
       <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="53"/>
+      <c r="A33" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="57"/>
       <c r="I33" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K33" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="L33" s="50"/>
-      <c r="N33" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="O33" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="K33" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="L33" s="54"/>
+      <c r="N33" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="O33" s="54"/>
       <c r="P33" s="16"/>
     </row>
     <row r="34" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2372,7 +2364,7 @@
         <v>48</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>31</v>
@@ -2384,13 +2376,13 @@
         <v>16</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K34" s="21" t="s">
         <v>81</v>
@@ -2405,7 +2397,7 @@
         <v>90</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2432,7 +2424,7 @@
         <v>72</v>
       </c>
       <c r="I35" s="40" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="K35" s="21" t="s">
         <v>82</v>
@@ -2444,10 +2436,10 @@
         <v>82</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P35" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2474,7 +2466,7 @@
         <v>73</v>
       </c>
       <c r="I36" s="40" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K36" s="21" t="s">
         <v>83</v>
@@ -2486,10 +2478,10 @@
         <v>83</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2528,10 +2520,10 @@
         <v>84</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2540,7 +2532,7 @@
         <v>52</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>35</v>
@@ -2552,13 +2544,13 @@
         <v>16</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I38" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K38" s="21" t="s">
         <v>85</v>
@@ -2570,10 +2562,10 @@
         <v>85</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="P38" s="16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2582,7 +2574,7 @@
         <v>53</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>36</v>
@@ -2596,7 +2588,7 @@
       <c r="G39" s="39"/>
       <c r="H39" s="39"/>
       <c r="I39" s="40" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K39" s="21" t="s">
         <v>86</v>
@@ -2604,11 +2596,11 @@
       <c r="L39" s="21">
         <v>460800</v>
       </c>
-      <c r="N39" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
+      <c r="N39" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
     </row>
     <row r="40" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="36"/>
@@ -2616,7 +2608,7 @@
         <v>54</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>37</v>
@@ -2630,7 +2622,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="39"/>
       <c r="I40" s="40" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K40" s="21" t="s">
         <v>87</v>
@@ -2638,9 +2630,9 @@
       <c r="L40" s="21">
         <v>921600</v>
       </c>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
     </row>
     <row r="41" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="36"/>
@@ -2648,7 +2640,7 @@
         <v>55</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>38</v>
@@ -2662,91 +2654,55 @@
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
       <c r="I41" s="40" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="30"/>
       <c r="B42" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D42" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42" s="31">
-        <v>16</v>
-      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
       <c r="G42" s="32"/>
-      <c r="H42" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="I42" s="33" t="s">
-        <v>110</v>
-      </c>
+      <c r="H42" s="32"/>
+      <c r="I42" s="33"/>
     </row>
     <row r="43" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="30"/>
       <c r="B43" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" s="29">
-        <v>16</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="I43" s="33" t="s">
-        <v>110</v>
-      </c>
+      <c r="H43" s="32"/>
+      <c r="I43" s="33"/>
     </row>
     <row r="44" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" s="31">
-        <v>16</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
       <c r="G44" s="32"/>
-      <c r="H44" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="I44" s="33" t="s">
-        <v>110</v>
-      </c>
+      <c r="H44" s="32"/>
+      <c r="I44" s="33"/>
     </row>
     <row r="45" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="31" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>

--- a/软硬件通信协议ModbusRTU_模版.xlsx
+++ b/软硬件通信协议ModbusRTU_模版.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="173">
   <si>
     <t>ModBus RTU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备启动次数（只读，修改无效）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>固件版本号（只读，修改无效）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -434,18 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00~0x01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00~0x01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -508,10 +492,6 @@
   </si>
   <si>
     <t>版本：v1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：离散输入/输出工作模式，是跟据硬件的配置，输入/输出与之对应关系，寄存器数量即为：min(DO数量, DI数量)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -597,25 +577,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>限位 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限位 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限位 3</t>
-  </si>
-  <si>
-    <t>限位 4</t>
+    <t>注：离散输入/输出工作模式(低8位关联模式，高8位关联参数)，是跟据硬件的配置，输入/输出与之对应关系，寄存器数量即为：Min(DO数量, DI数量)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备启动次数（只读，修改无效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0x00~0x01</t>
+  </si>
+  <si>
+    <t>0x00~0x01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0x00</t>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应数字引脚 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应数字引脚 4</t>
+  </si>
+  <si>
+    <t>对应数字引脚 5</t>
+  </si>
+  <si>
+    <t>对应数字引脚 6</t>
+  </si>
+  <si>
+    <t>对应数字引脚 7</t>
+  </si>
+  <si>
+    <t>对应数字引脚 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应数字引脚 9</t>
+  </si>
+  <si>
+    <t>对应数字引脚 10</t>
+  </si>
+  <si>
+    <t>对应数字引脚 11</t>
+  </si>
+  <si>
+    <t>对应数字引脚 12</t>
   </si>
 </sst>
 </file>
@@ -695,7 +712,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1014,11 +1031,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1141,6 +1209,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1162,10 +1239,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1177,16 +1266,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1511,52 +1609,52 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
+        <v>138</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
+        <v>139</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
+        <v>140</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
+        <v>141</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
+        <v>142</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>0</v>
@@ -1569,25 +1667,25 @@
     </row>
     <row r="7" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>91</v>
@@ -1598,28 +1696,28 @@
     </row>
     <row r="9" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="28" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1646,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1666,23 +1764,23 @@
     <col min="13" max="13" width="3.125" style="3" customWidth="1"/>
     <col min="14" max="14" width="9" style="3"/>
     <col min="15" max="15" width="23.75" style="3" customWidth="1"/>
-    <col min="16" max="16" width="28.125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="33.625" style="4" customWidth="1"/>
     <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="53"/>
+      <c r="A1" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="60"/>
       <c r="I1" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1715,24 +1813,24 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+      <c r="A3" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="21" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>16</v>
@@ -1746,14 +1844,20 @@
       <c r="F4" s="21">
         <v>1</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="13"/>
+      <c r="G4" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="34" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>17</v>
@@ -1767,14 +1871,20 @@
       <c r="F5" s="21">
         <v>1</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="13"/>
+      <c r="G5" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="34" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>18</v>
@@ -1788,14 +1898,20 @@
       <c r="F6" s="21">
         <v>1</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="13"/>
+      <c r="G6" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="34" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>19</v>
@@ -1809,14 +1925,20 @@
       <c r="F7" s="21">
         <v>1</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="13"/>
+      <c r="G7" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="34" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>20</v>
@@ -1830,14 +1952,20 @@
       <c r="F8" s="21">
         <v>1</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="13"/>
+      <c r="G8" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="34" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>21</v>
@@ -1858,7 +1986,7 @@
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="34" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>22</v>
@@ -1879,7 +2007,7 @@
     <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="34" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>23</v>
@@ -1913,18 +2041,18 @@
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
+      <c r="A13" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1944,14 +2072,14 @@
       <c r="F14" s="21">
         <v>1</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>119</v>
+      <c r="G14" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>161</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1971,14 +2099,14 @@
       <c r="F15" s="21">
         <v>1</v>
       </c>
-      <c r="G15" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>119</v>
+      <c r="G15" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>162</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1998,14 +2126,14 @@
       <c r="F16" s="21">
         <v>1</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>166</v>
+      <c r="G16" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>160</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2025,14 +2153,14 @@
       <c r="F17" s="21">
         <v>1</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>166</v>
+      <c r="G17" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>160</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2052,9 +2180,15 @@
       <c r="F18" s="21">
         <v>1</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="13"/>
+      <c r="G18" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
@@ -2135,18 +2269,18 @@
       <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57"/>
+      <c r="A23" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
       <c r="I23" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2155,7 +2289,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>31</v>
@@ -2335,28 +2469,28 @@
       <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="57"/>
+      <c r="A33" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="63"/>
       <c r="I33" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="K33" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="L33" s="54"/>
-      <c r="N33" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="O33" s="54"/>
-      <c r="P33" s="16"/>
+        <v>130</v>
+      </c>
+      <c r="K33" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="L33" s="64"/>
+      <c r="N33" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="O33" s="66"/>
+      <c r="P33" s="67"/>
     </row>
     <row r="34" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="36"/>
@@ -2364,7 +2498,7 @@
         <v>48</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>31</v>
@@ -2397,7 +2531,7 @@
         <v>90</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2424,7 +2558,7 @@
         <v>72</v>
       </c>
       <c r="I35" s="40" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K35" s="21" t="s">
         <v>82</v>
@@ -2432,14 +2566,14 @@
       <c r="L35" s="21">
         <v>19200</v>
       </c>
-      <c r="N35" s="34" t="s">
+      <c r="N35" s="42" t="s">
         <v>82</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P35" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2466,7 +2600,7 @@
         <v>73</v>
       </c>
       <c r="I36" s="40" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K36" s="21" t="s">
         <v>83</v>
@@ -2474,14 +2608,14 @@
       <c r="L36" s="21">
         <v>38400</v>
       </c>
-      <c r="N36" s="34" t="s">
+      <c r="N36" s="42" t="s">
         <v>83</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2516,14 +2650,14 @@
       <c r="L37" s="21">
         <v>115200</v>
       </c>
-      <c r="N37" s="34" t="s">
+      <c r="N37" s="42" t="s">
         <v>84</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2532,7 +2666,7 @@
         <v>52</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>35</v>
@@ -2558,14 +2692,14 @@
       <c r="L38" s="21">
         <v>230400</v>
       </c>
-      <c r="N38" s="34" t="s">
+      <c r="N38" s="42" t="s">
         <v>85</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P38" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2574,7 +2708,7 @@
         <v>53</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>36</v>
@@ -2588,7 +2722,7 @@
       <c r="G39" s="39"/>
       <c r="H39" s="39"/>
       <c r="I39" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K39" s="21" t="s">
         <v>86</v>
@@ -2596,11 +2730,11 @@
       <c r="L39" s="21">
         <v>460800</v>
       </c>
-      <c r="N39" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
+      <c r="N39" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="O39" s="53"/>
+      <c r="P39" s="54"/>
     </row>
     <row r="40" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="36"/>
@@ -2608,7 +2742,7 @@
         <v>54</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>37</v>
@@ -2622,7 +2756,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="39"/>
       <c r="I40" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K40" s="21" t="s">
         <v>87</v>
@@ -2630,9 +2764,9 @@
       <c r="L40" s="21">
         <v>921600</v>
       </c>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="57"/>
     </row>
     <row r="41" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="36"/>
@@ -2640,7 +2774,7 @@
         <v>55</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>38</v>
@@ -2654,7 +2788,7 @@
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
       <c r="I41" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2699,10 +2833,10 @@
     <row r="45" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="31" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
@@ -2726,12 +2860,12 @@
   <mergeCells count="8">
     <mergeCell ref="N39:P40"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="N33:O33"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="K33:L33"/>
+    <mergeCell ref="N33:P33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
